--- a/src/tests/option-dailyshift.test-cases.xlsx
+++ b/src/tests/option-dailyshift.test-cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naoto/Documents/projects/code-for-japan/JibungotoPlanet-backend/src/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F37295-9CF3-5545-964E-4D2A73FADFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63269B37-2C0F-0248-A0D9-ACBE97132963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="4460" windowWidth="41860" windowHeight="19760" activeTab="1" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
+    <workbookView xWindow="6360" yWindow="4460" windowWidth="41860" windowHeight="19760" xr2:uid="{504EB999-7D82-6E4A-B2A0-71B74C50F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="answers" sheetId="24" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
   <si>
     <t>case</t>
     <phoneticPr fontId="1"/>
@@ -393,10 +393,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>carPassengersKey</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>privateCarAnnualMileage</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -446,10 +442,6 @@
   </si>
   <si>
     <t>motorbikeWeeklyTravelingTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1_private-car-factor</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -707,6 +699,10 @@
       <t>ゾウゲン</t>
     </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>carPassengersFirstKey</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2452,8 +2448,8 @@
   </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2483,7 +2479,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>55</v>
@@ -2495,21 +2491,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -2517,7 +2513,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
@@ -2534,16 +2530,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -2551,13 +2547,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
         <v>5000</v>
@@ -2568,13 +2564,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -2585,13 +2581,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2602,13 +2598,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2619,13 +2615,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2636,30 +2632,30 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>52</v>
@@ -2670,13 +2666,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
@@ -2687,13 +2683,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -2704,13 +2700,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
         <v>20</v>
@@ -2721,13 +2717,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -2738,13 +2734,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
@@ -2755,13 +2751,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -2784,7 +2780,7 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -2840,20 +2836,20 @@
         <v>4</v>
       </c>
       <c r="L1" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M1" s="44"/>
       <c r="N1" s="45"/>
     </row>
     <row r="2" spans="1:14" ht="21" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="31">
         <v>12000</v>
@@ -2885,13 +2881,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="25">
         <v>18232.199236698365</v>
@@ -2918,7 +2914,7 @@
         <v>26</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M3" s="37">
         <v>1225</v>
@@ -2929,13 +2925,13 @@
     </row>
     <row r="4" spans="1:14" ht="21" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D4" s="26">
         <v>3022.199236698365</v>
@@ -2962,7 +2958,7 @@
         <v>28</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M4" s="37">
         <v>600</v>
@@ -2973,13 +2969,13 @@
     </row>
     <row r="5" spans="1:14" ht="21" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D5" s="24">
         <v>120</v>
@@ -3011,13 +3007,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="25">
         <v>0</v>
@@ -3049,13 +3045,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="27">
         <v>1475.4901960784373</v>
@@ -3087,13 +3083,13 @@
     </row>
     <row r="8" spans="1:14" ht="21" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="26">
         <v>1352.9120938264666</v>
@@ -3120,7 +3116,7 @@
         <v>37</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M8" s="40">
         <v>1</v>
@@ -3129,13 +3125,13 @@
     </row>
     <row r="9" spans="1:14" ht="21" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="24">
         <v>1345</v>
@@ -3162,7 +3158,7 @@
         <v>39</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M9" s="40">
         <v>0.70490196078431255</v>
@@ -3171,13 +3167,13 @@
     </row>
     <row r="10" spans="1:14" ht="21" thickBot="1">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="32">
         <v>1796.2125721220752</v>
@@ -3204,7 +3200,7 @@
         <v>42</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M10" s="40">
         <v>0</v>
@@ -3213,13 +3209,13 @@
     </row>
     <row r="11" spans="1:14" ht="21" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D11" s="24">
         <v>168.93444059755035</v>
@@ -3247,25 +3243,25 @@
       </c>
       <c r="L11" s="39"/>
       <c r="M11" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N11" s="30"/>
     </row>
     <row r="12" spans="1:14" ht="21" thickBot="1">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="32">
         <v>1.4786433479391042E-2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>18</v>
@@ -3287,25 +3283,25 @@
       </c>
       <c r="L12" s="41"/>
       <c r="M12" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="21" thickBot="1">
       <c r="A13" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="24">
         <v>1.3929601241108407E-2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>18</v>
@@ -3331,19 +3327,19 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="25">
         <v>3.5897022020564959</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>18</v>
@@ -3369,13 +3365,13 @@
     </row>
     <row r="15" spans="1:14" ht="21" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" s="26">
         <v>18.93842339197267</v>
@@ -3407,13 +3403,13 @@
     </row>
     <row r="16" spans="1:14" ht="21" thickBot="1">
       <c r="A16" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="24">
         <v>2.3580759098686901</v>
@@ -3445,13 +3441,13 @@
     </row>
     <row r="17" spans="1:14" ht="21" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="32">
         <v>2.7667607091725479</v>
